--- a/CONTOH DUPAK/Prakom_Muh. Shamad/Administrasi/Mentah/2. Laporan Kegiatan Prakom Januari - Juni 2022.xlsx
+++ b/CONTOH DUPAK/Prakom_Muh. Shamad/Administrasi/Mentah/2. Laporan Kegiatan Prakom Januari - Juni 2022.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6B9A92-EB0D-4873-B3FD-F321D8F52919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2EC500-8B36-4DE2-9B93-8207666917B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,6 +646,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,42 +686,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -981,7 +972,7 @@
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,16 +986,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1223,25 +1214,25 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1249,13 +1240,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
@@ -1287,1452 +1278,1452 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="10">
         <v>0.02</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="11">
         <v>12</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="12">
         <f t="shared" ref="H23:H27" si="0">F23*G23</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="7">
         <v>2</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="10">
         <v>0.12</v>
       </c>
-      <c r="G24" s="18">
-        <v>1</v>
-      </c>
-      <c r="H24" s="19">
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="7">
         <v>3</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="10">
         <v>0.12</v>
       </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="19">
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="7">
         <v>4</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="10">
         <v>0.12</v>
       </c>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19">
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
         <f t="shared" ref="H26" si="1">F26*G26</f>
         <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="7">
         <v>5</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="10">
         <v>0.02</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="11">
         <v>13</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="12">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>1</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="7">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="10">
         <v>0.06</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="11">
         <v>13</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="12">
         <f t="shared" ref="H29:H39" si="2">F29*G29</f>
         <v>0.78</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="7">
         <v>2</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="10">
         <v>5.5E-2</v>
       </c>
-      <c r="G30" s="18">
-        <v>1</v>
-      </c>
-      <c r="H30" s="19">
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
         <f t="shared" si="2"/>
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="7">
         <v>3</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="10">
         <v>0.29920000000000002</v>
       </c>
-      <c r="G31" s="18">
-        <v>1</v>
-      </c>
-      <c r="H31" s="19">
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12">
         <f t="shared" si="2"/>
         <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="7">
         <v>4</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="11">
         <v>10</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="12">
         <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="7">
         <v>5</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="10">
         <v>5.5E-2</v>
       </c>
-      <c r="G33" s="18">
-        <v>1</v>
-      </c>
-      <c r="H33" s="19">
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12">
         <f t="shared" si="2"/>
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="7">
         <v>6</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="10">
         <v>0.03</v>
       </c>
-      <c r="G34" s="18">
-        <v>1</v>
-      </c>
-      <c r="H34" s="19">
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="7">
         <v>7</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="10">
         <v>0.09</v>
       </c>
-      <c r="G35" s="18">
-        <v>1</v>
-      </c>
-      <c r="H35" s="19">
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12">
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="7">
         <v>8</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="10">
         <v>0.09</v>
       </c>
-      <c r="G36" s="18">
-        <v>1</v>
-      </c>
-      <c r="H36" s="19">
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
         <f t="shared" ref="H36:H38" si="3">F36*G36</f>
         <v>0.09</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="7">
         <v>9</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G37" s="18">
-        <v>1</v>
-      </c>
-      <c r="H37" s="19">
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12">
         <f t="shared" si="3"/>
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="7">
         <v>10</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G38" s="18">
-        <v>1</v>
-      </c>
-      <c r="H38" s="19">
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12">
         <f t="shared" si="3"/>
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="7">
         <v>11</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="11">
         <v>11</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="12">
         <f t="shared" si="2"/>
         <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="7">
         <v>12</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="10">
         <v>0.06</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="11">
         <v>10</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="12">
         <f t="shared" ref="H40" si="4">F40*G40</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="7">
         <v>13</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G41" s="18">
-        <v>1</v>
-      </c>
-      <c r="H41" s="19">
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12">
         <f t="shared" ref="H41" si="5">F41*G41</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>1</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="7">
+        <v>1</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="10">
         <v>0.182</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="11">
         <v>2</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="12">
         <f t="shared" ref="H43:H71" si="6">F43*G43</f>
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="7">
         <v>2</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="10">
         <v>0.6</v>
       </c>
-      <c r="G44" s="18">
-        <v>1</v>
-      </c>
-      <c r="H44" s="19">
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="7">
         <v>3</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="10">
         <v>0.6</v>
       </c>
-      <c r="G45" s="18">
-        <v>1</v>
-      </c>
-      <c r="H45" s="19">
+      <c r="G45" s="11">
+        <v>1</v>
+      </c>
+      <c r="H45" s="12">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="7">
         <v>4</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="10">
         <v>0.6</v>
       </c>
-      <c r="G46" s="18">
-        <v>1</v>
-      </c>
-      <c r="H46" s="19">
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12">
         <f t="shared" ref="H46:H58" si="7">F46*G46</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="7">
         <v>5</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="11">
         <v>3</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="12">
         <f t="shared" si="7"/>
         <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="7">
         <v>6</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="10">
         <v>0.11</v>
       </c>
-      <c r="G48" s="18">
-        <v>1</v>
-      </c>
-      <c r="H48" s="19">
+      <c r="G48" s="11">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="7">
         <v>7</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="10">
         <v>0.182</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="11">
         <v>2</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="12">
         <f t="shared" si="7"/>
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="7">
         <v>8</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="10">
         <v>0.11</v>
       </c>
-      <c r="G50" s="18">
-        <v>1</v>
-      </c>
-      <c r="H50" s="19">
+      <c r="G50" s="11">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="7">
         <v>9</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="10">
         <v>0.11</v>
       </c>
-      <c r="G51" s="18">
-        <v>1</v>
-      </c>
-      <c r="H51" s="19">
+      <c r="G51" s="11">
+        <v>1</v>
+      </c>
+      <c r="H51" s="12">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="7">
         <v>10</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="10">
         <v>0.182</v>
       </c>
-      <c r="G52" s="18">
-        <v>1</v>
-      </c>
-      <c r="H52" s="19">
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12">
         <f t="shared" si="7"/>
         <v>0.182</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="7">
         <v>11</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="10">
         <v>0.11</v>
       </c>
-      <c r="G53" s="18">
-        <v>1</v>
-      </c>
-      <c r="H53" s="19">
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" s="12">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="7">
         <v>12</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="10">
         <v>0.182</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="11">
         <v>2</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="12">
         <f t="shared" si="7"/>
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="7">
         <v>13</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="10">
         <v>0.182</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="11">
         <v>2</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="12">
         <f t="shared" si="7"/>
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="7">
         <v>14</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="10">
         <v>0.11</v>
       </c>
-      <c r="G56" s="18">
-        <v>1</v>
-      </c>
-      <c r="H56" s="19">
+      <c r="G56" s="11">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="7">
         <v>15</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="10">
         <v>0.11</v>
       </c>
-      <c r="G57" s="18">
-        <v>1</v>
-      </c>
-      <c r="H57" s="19">
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57" s="12">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="7">
         <v>16</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="10">
         <v>0.11</v>
       </c>
-      <c r="G58" s="18">
-        <v>1</v>
-      </c>
-      <c r="H58" s="19">
+      <c r="G58" s="11">
+        <v>1</v>
+      </c>
+      <c r="H58" s="12">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="7">
         <v>17</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="10">
         <v>0.11</v>
       </c>
-      <c r="G59" s="18">
-        <v>1</v>
-      </c>
-      <c r="H59" s="19">
+      <c r="G59" s="11">
+        <v>1</v>
+      </c>
+      <c r="H59" s="12">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="7">
         <v>18</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="11">
         <v>3</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="12">
         <f t="shared" si="6"/>
         <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="7">
         <v>19</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="10">
         <v>0.11</v>
       </c>
-      <c r="G61" s="18">
-        <v>1</v>
-      </c>
-      <c r="H61" s="19">
+      <c r="G61" s="11">
+        <v>1</v>
+      </c>
+      <c r="H61" s="12">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="7">
         <v>20</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="10">
         <v>0.6</v>
       </c>
-      <c r="G62" s="18">
-        <v>1</v>
-      </c>
-      <c r="H62" s="19">
+      <c r="G62" s="11">
+        <v>1</v>
+      </c>
+      <c r="H62" s="12">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="7">
         <v>21</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="10">
         <v>0.6</v>
       </c>
-      <c r="G63" s="18">
-        <v>1</v>
-      </c>
-      <c r="H63" s="19">
+      <c r="G63" s="11">
+        <v>1</v>
+      </c>
+      <c r="H63" s="12">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="7">
         <v>22</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="10">
         <v>0.11</v>
       </c>
-      <c r="G64" s="18">
-        <v>1</v>
-      </c>
-      <c r="H64" s="19">
+      <c r="G64" s="11">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="7">
         <v>23</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="10">
         <v>0.11</v>
       </c>
-      <c r="G65" s="18">
-        <v>1</v>
-      </c>
-      <c r="H65" s="19">
+      <c r="G65" s="11">
+        <v>1</v>
+      </c>
+      <c r="H65" s="12">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="7">
         <v>24</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="10">
         <v>0.11</v>
       </c>
-      <c r="G66" s="18">
-        <v>1</v>
-      </c>
-      <c r="H66" s="19">
+      <c r="G66" s="11">
+        <v>1</v>
+      </c>
+      <c r="H66" s="12">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="A67" s="7">
         <v>25</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="10">
         <v>1.21</v>
       </c>
-      <c r="G67" s="18">
-        <v>1</v>
-      </c>
-      <c r="H67" s="19">
+      <c r="G67" s="11">
+        <v>1</v>
+      </c>
+      <c r="H67" s="12">
         <f t="shared" si="6"/>
         <v>1.21</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="A68" s="7">
         <v>26</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="10">
         <v>1.21</v>
       </c>
-      <c r="G68" s="18">
-        <v>1</v>
-      </c>
-      <c r="H68" s="19">
+      <c r="G68" s="11">
+        <v>1</v>
+      </c>
+      <c r="H68" s="12">
         <f t="shared" si="6"/>
         <v>1.21</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="A69" s="7">
         <v>27</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="10">
         <v>0.11</v>
       </c>
-      <c r="G69" s="18">
-        <v>1</v>
-      </c>
-      <c r="H69" s="19">
+      <c r="G69" s="11">
+        <v>1</v>
+      </c>
+      <c r="H69" s="12">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="7">
         <v>28</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="10">
         <v>0.11</v>
       </c>
-      <c r="G70" s="18">
-        <v>1</v>
-      </c>
-      <c r="H70" s="19">
+      <c r="G70" s="11">
+        <v>1</v>
+      </c>
+      <c r="H70" s="12">
         <f t="shared" ref="H70" si="8">F70*G70</f>
         <v>0.11</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="A71" s="7">
         <v>29</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="10">
         <v>0.11</v>
       </c>
-      <c r="G71" s="18">
-        <v>1</v>
-      </c>
-      <c r="H71" s="19">
+      <c r="G71" s="11">
+        <v>1</v>
+      </c>
+      <c r="H71" s="12">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="23"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
-        <v>1</v>
-      </c>
-      <c r="B73" s="15" t="s">
+      <c r="A73" s="7">
+        <v>1</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G73" s="18">
-        <v>1</v>
-      </c>
-      <c r="H73" s="19">
+      <c r="G73" s="11">
+        <v>1</v>
+      </c>
+      <c r="H73" s="12">
         <f t="shared" ref="H73" si="9">F73*G73</f>
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="23"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="20"/>
     </row>
     <row r="75" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
-        <v>1</v>
-      </c>
-      <c r="B75" s="15" t="s">
+      <c r="A75" s="7">
+        <v>1</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="10">
         <v>0.5</v>
       </c>
-      <c r="G75" s="18">
-        <v>1</v>
-      </c>
-      <c r="H75" s="19">
+      <c r="G75" s="11">
+        <v>1</v>
+      </c>
+      <c r="H75" s="12">
         <f t="shared" ref="H75" si="10">F75*G75</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+      <c r="A76" s="7">
         <v>2</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F76" s="17">
-        <v>1</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1</v>
-      </c>
-      <c r="H76" s="19">
+      <c r="F76" s="10">
+        <v>1</v>
+      </c>
+      <c r="G76" s="11">
+        <v>1</v>
+      </c>
+      <c r="H76" s="12">
         <f t="shared" ref="H76" si="11">F76*G76</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+      <c r="A77" s="7">
         <v>3</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="10">
         <v>0.5</v>
       </c>
-      <c r="G77" s="18">
-        <v>1</v>
-      </c>
-      <c r="H77" s="19">
+      <c r="G77" s="11">
+        <v>1</v>
+      </c>
+      <c r="H77" s="12">
         <f t="shared" ref="H77" si="12">F77*G77</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="6">
         <f>SUM(H22:H77)</f>
         <v>15.316199999999995</v>
@@ -2756,11 +2747,11 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
@@ -2768,11 +2759,11 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
@@ -2820,11 +2811,11 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -2832,11 +2823,11 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -3110,6 +3101,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A72:H72"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="F80:H80"/>
@@ -3123,11 +3119,6 @@
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A74:H74"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A72:H72"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
